--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depo\repositories\best_countries_to_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4874A3C5-7E83-4C58-8055-03E3DD537A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7428A-4319-4268-9297-E6084E38CB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="portfolio_pic" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="344">
   <si>
     <t>Australia</t>
   </si>
@@ -1127,7 +1128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1164,12 +1165,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1184,12 +1240,100 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2082,40 +2226,1001 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Cities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>portfolio_pic!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="46000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="130000" r="50000" b="-30000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>portfolio_pic!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Breda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heidelberg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gothenburg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Helsingborg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stockholm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Copenhagen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Odense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aalborg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Helsinki</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Turku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>portfolio_pic!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>86.836810649521226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.508354054572493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.393624408798885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.425427335233024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.470486533985664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.793604020406733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.409741138972308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.699884722038789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.317193039240038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5059-47A1-BEAF-1CA71E277100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="30539104"/>
+        <c:axId val="102781728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30539104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102781728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102781728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30539104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F25E5D1-2CBD-7F2A-5FEF-DEA5CC7322DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}" name="Table6" displayName="Table6" ref="A1:Y256" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}" name="Table6" displayName="Table6" ref="A1:Y256" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A1:Y256" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y256">
     <sortCondition descending="1" ref="B1:B256"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{80382500-1D7C-4630-A555-9FD7C260361C}" name="Pros and cons" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{59D6D747-FFDC-4BB3-9570-EB22EA45DE86}" name="Pros" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{9C437F87-5536-4265-B373-A1FF979FBC26}" name="Cons" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{7D59C767-7623-42C6-B6B4-504D5749016C}" name="Cities" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{59E28621-1B43-4800-821C-B43ED0CB8471}" name="States" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{1F66A990-F2D0-4839-9DFA-15F37F69C45A}" name="Countries" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{59F64A58-D3BD-4BFE-AB59-277A6D4455FD}" name="Cost of Living" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="27" xr3:uid="{58C23D31-18AE-4A5A-87AF-58F8492E5167}" name="Health Care Index" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="37" xr3:uid="{EDA973B7-8DF8-40DF-9610-76F116CA1FAA}" name="Pollution" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="38" xr3:uid="{BE83525D-02BC-49E3-9B6A-1261B772D90D}" name="Safety" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="39" xr3:uid="{101E5666-C62C-415E-845C-47FABF97C30B}" name="Personal Income Taxes" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="40" xr3:uid="{03FC8450-60A6-4C04-AFC3-A4113D442AC6}" name="Sales Taxes" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="42" xr3:uid="{A2E3661D-E42E-44BE-BC7B-779534A24CBE}" name="Corporate Taxes" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="43" xr3:uid="{097E3160-9C6E-400E-B22F-7A9B4267185E}" name="Corruption" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="44" xr3:uid="{F0BDBCD6-E98B-4086-890A-A8F46EDD716B}" name="Economic Complexity" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="45" xr3:uid="{DA42FD6E-58C1-45D3-802A-5B99930C1DF4}" name="Democracy" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="46" xr3:uid="{564CB288-040F-4871-B85A-D8C4F4E39EE5}" name="Liberal Democracy" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="47" xr3:uid="{661EC373-787C-40D8-977A-83CD863D6492}" name="Gender Inequality" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="48" xr3:uid="{F918D4D5-5348-4B8B-A71B-5FD430C5411B}" name="IQ" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="49" xr3:uid="{CFB028CE-06D9-4940-9E16-A6A1FC78ED3E}" name="Press Freedom" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="50" xr3:uid="{38DD9DB2-C421-4BE2-9F4C-DB792930DC43}" name="Pisa" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="51" xr3:uid="{BD535A71-A3D6-4328-B4D9-2ACDAEF6BE58}" name="Public Social Expenditure as GDP" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="52" xr3:uid="{9B16A19D-A232-4560-987D-636C40EECF93}" name="Innovation" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="53" xr3:uid="{01AA429B-8C04-469A-A996-19C7715B6121}" name="Human Capital" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="54" xr3:uid="{81EC6E51-37A1-4CFA-95B7-EBD1F40C56A2}" name="Gini Coefficient * GDP Per Capita" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{80382500-1D7C-4630-A555-9FD7C260361C}" name="Pros and cons" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{59D6D747-FFDC-4BB3-9570-EB22EA45DE86}" name="Pros" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{9C437F87-5536-4265-B373-A1FF979FBC26}" name="Cons" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7D59C767-7623-42C6-B6B4-504D5749016C}" name="Cities" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{59E28621-1B43-4800-821C-B43ED0CB8471}" name="States" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{1F66A990-F2D0-4839-9DFA-15F37F69C45A}" name="Countries" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{59F64A58-D3BD-4BFE-AB59-277A6D4455FD}" name="Cost of Living" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="27" xr3:uid="{58C23D31-18AE-4A5A-87AF-58F8492E5167}" name="Health Care Index" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="37" xr3:uid="{EDA973B7-8DF8-40DF-9610-76F116CA1FAA}" name="Pollution" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="38" xr3:uid="{BE83525D-02BC-49E3-9B6A-1261B772D90D}" name="Safety" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="39" xr3:uid="{101E5666-C62C-415E-845C-47FABF97C30B}" name="Personal Income Taxes" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="40" xr3:uid="{03FC8450-60A6-4C04-AFC3-A4113D442AC6}" name="Sales Taxes" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="42" xr3:uid="{A2E3661D-E42E-44BE-BC7B-779534A24CBE}" name="Corporate Taxes" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="43" xr3:uid="{097E3160-9C6E-400E-B22F-7A9B4267185E}" name="Corruption" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="44" xr3:uid="{F0BDBCD6-E98B-4086-890A-A8F46EDD716B}" name="Economic Complexity" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="45" xr3:uid="{DA42FD6E-58C1-45D3-802A-5B99930C1DF4}" name="Democracy" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="46" xr3:uid="{564CB288-040F-4871-B85A-D8C4F4E39EE5}" name="Liberal Democracy" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="47" xr3:uid="{661EC373-787C-40D8-977A-83CD863D6492}" name="Gender Inequality" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="48" xr3:uid="{F918D4D5-5348-4B8B-A71B-5FD430C5411B}" name="IQ" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="49" xr3:uid="{CFB028CE-06D9-4940-9E16-A6A1FC78ED3E}" name="Press Freedom" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="50" xr3:uid="{38DD9DB2-C421-4BE2-9F4C-DB792930DC43}" name="Pisa" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="51" xr3:uid="{BD535A71-A3D6-4328-B4D9-2ACDAEF6BE58}" name="Public Social Expenditure as GDP" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="52" xr3:uid="{9B16A19D-A232-4560-987D-636C40EECF93}" name="Innovation" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="53" xr3:uid="{01AA429B-8C04-469A-A996-19C7715B6121}" name="Human Capital" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="54" xr3:uid="{81EC6E51-37A1-4CFA-95B7-EBD1F40C56A2}" name="Gini Coefficient * GDP Per Capita" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76081CB7-9680-480C-8C65-995BD52A14F4}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B11" xr:uid="{76081CB7-9680-480C-8C65-995BD52A14F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E7E1805D-818A-4542-8209-0BB087BFDFEF}" name="Cities" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D190D7EF-4383-4848-AC72-4145F46B27EF}" name="Pros" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -22029,4 +23134,113 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB425F0-7F5C-417D-A94B-3BED8454D8F3}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="15">
+        <v>86.836810649521226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="15">
+        <v>87.508354054572493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="14">
+        <v>89.393624408798885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="15">
+        <v>89.425427335233024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="15">
+        <v>89.470486533985664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="14">
+        <v>92.793604020406733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="14">
+        <v>93.409741138972308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="15">
+        <v>94.699884722038789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="15">
+        <v>98.317193039240038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depo\repositories\best_countries_to_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7428A-4319-4268-9297-E6084E38CB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E20EE-D27E-44EA-B762-B4C3834EAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="portfolio_pic" sheetId="3" r:id="rId2"/>
+    <sheet name="analysis_v2_better_cons" sheetId="4" r:id="rId1"/>
+    <sheet name="analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="portfolio_pic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="349">
   <si>
     <t>Australia</t>
   </si>
@@ -1069,6 +1070,21 @@
   </si>
   <si>
     <t>Pros and cons</t>
+  </si>
+  <si>
+    <t>Investment_Analyst_Salary</t>
+  </si>
+  <si>
+    <t>Pros and cons for employee</t>
+  </si>
+  <si>
+    <t>Cons for employee</t>
+  </si>
+  <si>
+    <t>Cons for employer</t>
+  </si>
+  <si>
+    <t>Pros and cons for employer</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1094,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,8 +1117,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,8 +1156,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1220,12 +1273,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1240,20 +1330,386 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3174,51 +3630,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}" name="Table6" displayName="Table6" ref="A1:Y256" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD030448-0448-4D09-B1E2-818CBB326207}" name="Table3" displayName="Table3" ref="A1:K256" totalsRowShown="0" headerRowDxfId="12" dataDxfId="3">
+  <autoFilter ref="A1:K256" xr:uid="{CD030448-0448-4D09-B1E2-818CBB326207}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K256">
+    <sortCondition ref="G1:G256"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{8C0317AD-4312-4E00-9AFA-CF9306CF5663}" name="Pros and cons for employer" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E063685A-A9F0-4D1E-906E-7E8D4E3A13DE}" name="Cons for employer" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8E186554-9332-499A-8547-27A0D2FA214A}" name="Pros and cons for employee" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{4794F087-B060-4B23-8921-43D50B672EF6}" name="Cons for employee" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E4CAF269-D2C5-4DFE-B3DE-751B64EE0C6E}" name="Pros" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{7DD58C53-433C-4FCB-9CD4-FA182319E057}" name="Cities" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9C498909-197E-46C4-A9C9-FA72C987FCBE}" name="Countries" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{4A025910-BC66-44AD-BA47-7A47F16EDEB5}" name="Investment_Analyst_Salary" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B3FE9B09-8AB6-4B9F-8982-D6A4081D1A41}" name="Personal Income Taxes" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{129F3B72-AC31-48A2-BFDF-E82E280211FC}" name="Corporate Taxes" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{79EEF2CA-7C23-4103-8322-E60C08CF4A15}" name="Cost of Living" dataDxfId="4" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}" name="Table6" displayName="Table6" ref="A1:Y256" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:Y256" xr:uid="{2702D68A-AF5A-4D58-9D9E-3092921B9364}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y256">
     <sortCondition descending="1" ref="B1:B256"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{80382500-1D7C-4630-A555-9FD7C260361C}" name="Pros and cons" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{59D6D747-FFDC-4BB3-9570-EB22EA45DE86}" name="Pros" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{9C437F87-5536-4265-B373-A1FF979FBC26}" name="Cons" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{7D59C767-7623-42C6-B6B4-504D5749016C}" name="Cities" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{59E28621-1B43-4800-821C-B43ED0CB8471}" name="States" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{1F66A990-F2D0-4839-9DFA-15F37F69C45A}" name="Countries" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{59F64A58-D3BD-4BFE-AB59-277A6D4455FD}" name="Cost of Living" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="27" xr3:uid="{58C23D31-18AE-4A5A-87AF-58F8492E5167}" name="Health Care Index" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="37" xr3:uid="{EDA973B7-8DF8-40DF-9610-76F116CA1FAA}" name="Pollution" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="38" xr3:uid="{BE83525D-02BC-49E3-9B6A-1261B772D90D}" name="Safety" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="39" xr3:uid="{101E5666-C62C-415E-845C-47FABF97C30B}" name="Personal Income Taxes" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="40" xr3:uid="{03FC8450-60A6-4C04-AFC3-A4113D442AC6}" name="Sales Taxes" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="42" xr3:uid="{A2E3661D-E42E-44BE-BC7B-779534A24CBE}" name="Corporate Taxes" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="43" xr3:uid="{097E3160-9C6E-400E-B22F-7A9B4267185E}" name="Corruption" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="44" xr3:uid="{F0BDBCD6-E98B-4086-890A-A8F46EDD716B}" name="Economic Complexity" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="45" xr3:uid="{DA42FD6E-58C1-45D3-802A-5B99930C1DF4}" name="Democracy" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="46" xr3:uid="{564CB288-040F-4871-B85A-D8C4F4E39EE5}" name="Liberal Democracy" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="47" xr3:uid="{661EC373-787C-40D8-977A-83CD863D6492}" name="Gender Inequality" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="48" xr3:uid="{F918D4D5-5348-4B8B-A71B-5FD430C5411B}" name="IQ" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="49" xr3:uid="{CFB028CE-06D9-4940-9E16-A6A1FC78ED3E}" name="Press Freedom" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="50" xr3:uid="{38DD9DB2-C421-4BE2-9F4C-DB792930DC43}" name="Pisa" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="51" xr3:uid="{BD535A71-A3D6-4328-B4D9-2ACDAEF6BE58}" name="Public Social Expenditure as GDP" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="52" xr3:uid="{9B16A19D-A232-4560-987D-636C40EECF93}" name="Innovation" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="53" xr3:uid="{01AA429B-8C04-469A-A996-19C7715B6121}" name="Human Capital" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="54" xr3:uid="{81EC6E51-37A1-4CFA-95B7-EBD1F40C56A2}" name="Gini Coefficient * GDP Per Capita" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{80382500-1D7C-4630-A555-9FD7C260361C}" name="Pros and cons" dataDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{59D6D747-FFDC-4BB3-9570-EB22EA45DE86}" name="Pros" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{9C437F87-5536-4265-B373-A1FF979FBC26}" name="Cons" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{7D59C767-7623-42C6-B6B4-504D5749016C}" name="Cities" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{59E28621-1B43-4800-821C-B43ED0CB8471}" name="States" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{1F66A990-F2D0-4839-9DFA-15F37F69C45A}" name="Countries" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{59F64A58-D3BD-4BFE-AB59-277A6D4455FD}" name="Cost of Living" dataDxfId="34" dataCellStyle="Comma"/>
+    <tableColumn id="27" xr3:uid="{58C23D31-18AE-4A5A-87AF-58F8492E5167}" name="Health Care Index" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="37" xr3:uid="{EDA973B7-8DF8-40DF-9610-76F116CA1FAA}" name="Pollution" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="38" xr3:uid="{BE83525D-02BC-49E3-9B6A-1261B772D90D}" name="Safety" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="39" xr3:uid="{101E5666-C62C-415E-845C-47FABF97C30B}" name="Personal Income Taxes" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="40" xr3:uid="{03FC8450-60A6-4C04-AFC3-A4113D442AC6}" name="Sales Taxes" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="42" xr3:uid="{A2E3661D-E42E-44BE-BC7B-779534A24CBE}" name="Corporate Taxes" dataDxfId="28" dataCellStyle="Comma"/>
+    <tableColumn id="43" xr3:uid="{097E3160-9C6E-400E-B22F-7A9B4267185E}" name="Corruption" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="44" xr3:uid="{F0BDBCD6-E98B-4086-890A-A8F46EDD716B}" name="Economic Complexity" dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="45" xr3:uid="{DA42FD6E-58C1-45D3-802A-5B99930C1DF4}" name="Democracy" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="46" xr3:uid="{564CB288-040F-4871-B85A-D8C4F4E39EE5}" name="Liberal Democracy" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="47" xr3:uid="{661EC373-787C-40D8-977A-83CD863D6492}" name="Gender Inequality" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="48" xr3:uid="{F918D4D5-5348-4B8B-A71B-5FD430C5411B}" name="IQ" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="49" xr3:uid="{CFB028CE-06D9-4940-9E16-A6A1FC78ED3E}" name="Press Freedom" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="50" xr3:uid="{38DD9DB2-C421-4BE2-9F4C-DB792930DC43}" name="Pisa" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="51" xr3:uid="{BD535A71-A3D6-4328-B4D9-2ACDAEF6BE58}" name="Public Social Expenditure as GDP" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="52" xr3:uid="{9B16A19D-A232-4560-987D-636C40EECF93}" name="Innovation" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="53" xr3:uid="{01AA429B-8C04-469A-A996-19C7715B6121}" name="Human Capital" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="54" xr3:uid="{81EC6E51-37A1-4CFA-95B7-EBD1F40C56A2}" name="Gini Coefficient * GDP Per Capita" dataDxfId="16" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76081CB7-9680-480C-8C65-995BD52A14F4}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" tableBorderDxfId="2">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76081CB7-9680-480C-8C65-995BD52A14F4}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:B11" xr:uid="{76081CB7-9680-480C-8C65-995BD52A14F4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="B2:B11"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7E1805D-818A-4542-8209-0BB087BFDFEF}" name="Cities" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D190D7EF-4383-4848-AC72-4145F46B27EF}" name="Pros" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E7E1805D-818A-4542-8209-0BB087BFDFEF}" name="Cities" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D190D7EF-4383-4848-AC72-4145F46B27EF}" name="Pros" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3486,10 +3965,5497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22D8810-8841-4314-ADDB-1F513BAF9E92}">
+  <dimension ref="A1:K256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28">
+        <v>67.2393377012325</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>87626</v>
+      </c>
+      <c r="I2" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J2" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="30">
+        <v>61.384781118401719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28">
+        <v>67.227310108866391</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>87626</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J3" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="30">
+        <v>40.434332988624604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28">
+        <v>66.758487940947916</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>87626</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J4" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="30">
+        <v>51.913133402275079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28">
+        <v>66.657558045694472</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>87626</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J5" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="30">
+        <v>43.846949327817995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28">
+        <v>66.599128484474662</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>87626</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J6" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="30">
+        <v>60.60131231025364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28">
+        <v>66.315832670859876</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>87626</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J7" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="30">
+        <v>50.982419855222325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28">
+        <v>65.184974433294869</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>87626</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J8" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="30">
+        <v>51.913133402275079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28">
+        <v>64.97147409999522</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>87626</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J9" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="30">
+        <v>50.155118924508791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28">
+        <v>80.790607746057816</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
+        <v>85373</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="K10" s="30">
+        <v>62.874870734229575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28">
+        <v>78.441758303255341</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>85373</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="K11" s="30">
+        <v>53.951620801096844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
+        <v>77.261980956940278</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <v>85373</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="K12" s="30">
+        <v>46.93957496817157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28">
+        <v>81.299709241732032</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30">
+        <v>60.160611105670348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28">
+        <v>74.320267043270107</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30">
+        <v>55.048477132504161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28">
+        <v>71.185258411831384</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30">
+        <v>58.531540847983443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28">
+        <v>77.507254512082383</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30">
+        <v>57.369503476642834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28">
+        <v>75.415146095330513</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30">
+        <v>58.985407893448226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28">
+        <v>74.431908523601336</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="30">
+        <v>56.67011375387797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28">
+        <v>74.010066489014761</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30">
+        <v>56.67011375387797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28">
+        <v>73.302132275035689</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30">
+        <v>55.739400206825238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28">
+        <v>73.02688386811856</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="30">
+        <v>60.082264224855543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28">
+        <v>72.949072346436083</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="30">
+        <v>52.637021716649436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28">
+        <v>72.923034244686832</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="30">
+        <v>57.261776515522477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28">
+        <v>72.872485712194973</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30">
+        <v>66.907962771458116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28">
+        <v>72.758555697732461</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30">
+        <v>58.841778697001033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28">
+        <v>72.724578937947172</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="30">
+        <v>60.336891587503672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28">
+        <v>72.64306526673478</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="30">
+        <v>57.704239917269909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28">
+        <v>72.282697807728894</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="30">
+        <v>56.359875904860388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28">
+        <v>72.11726956879879</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="30">
+        <v>63.908996897621506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28">
+        <v>71.376845069192768</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="30">
+        <v>54.549015767309768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28">
+        <v>71.121680536559467</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="30">
+        <v>51.777494858485937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28">
+        <v>70.201616371461938</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="30">
+        <v>57.986485163059442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28">
+        <v>69.504359020248899</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="30">
+        <v>58.152972284790906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28">
+        <v>69.000602009566606</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="30">
+        <v>63.098619136225629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28">
+        <v>68.951122213232011</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="30">
+        <v>62.461220268872808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28">
+        <v>68.767250311356591</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="30">
+        <v>62.564632885211992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28">
+        <v>68.213686771213176</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="30">
+        <v>59.063754774263053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28">
+        <v>67.490065550634426</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="30">
+        <v>58.064832043874247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28">
+        <v>65.609391445276799</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="30">
+        <v>60.591518950151787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28">
+        <v>25.485895709733441</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="30">
+        <v>80.765253360910023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28">
+        <v>4.5979033432077943</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="30">
+        <v>91.636470473019287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28">
+        <v>4.4975409418873049</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28">
+        <v>3.2701183583236952</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="30">
+        <v>92.919400646361765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28">
+        <v>1.53609141047405</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="30">
+        <v>96.415630202722554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28">
+        <v>94.699884722038789</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="30">
+        <v>47.223582411125257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28">
+        <v>93.409741138972308</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="30">
+        <v>41.308392909607278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28">
+        <v>92.793604020406733</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="30">
+        <v>46.122026887280242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28">
+        <v>76.675249151594784</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="30">
+        <v>71.458117890382624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28">
+        <v>100</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="30">
+        <v>56.586034668494769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28">
+        <v>98.317193039240038</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="30">
+        <v>58.841778697001033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28">
+        <v>78.596945143267774</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="30">
+        <v>56.253060425031833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28">
+        <v>77.371309648978212</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="30">
+        <v>51.415140534717466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28">
+        <v>77.27996512782633</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="30">
+        <v>56.115953383605913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28">
+        <v>77.206433152225657</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="30">
+        <v>58.211732445402021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28">
+        <v>76.204130958008065</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="30">
+        <v>59.612182939966694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28">
+        <v>75.618363532583771</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="30">
+        <v>50.367251003819405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28">
+        <v>73.859609273180723</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="30">
+        <v>53.050672182006195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28">
+        <v>73.852740620297624</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="30">
+        <v>57.43805699735578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28">
+        <v>72.65170871486761</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="30">
+        <v>59.82763686220742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28">
+        <v>87.508354054572493</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="30">
+        <v>56.772108510429931</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28">
+        <v>86.288628057240189</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="30">
+        <v>56.566701137538779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28">
+        <v>84.851593883671796</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="30">
+        <v>52.844971109587689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28">
+        <v>84.616214269763702</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="30">
+        <v>59.093134854568596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28">
+        <v>84.466403246983475</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="30">
+        <v>57.731857800411326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28">
+        <v>83.379044946504663</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="30">
+        <v>59.915777103124078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28">
+        <v>83.252552428379261</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="30">
+        <v>56.311820585642934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28">
+        <v>82.640353931870166</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="30">
+        <v>52.267162863578484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28">
+        <v>82.589204894083579</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="30">
+        <v>58.841778697001033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28">
+        <v>82.484599219143419</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="30">
+        <v>58.818920771716776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28">
+        <v>81.951608397997006</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="30">
+        <v>58.60346684947605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28">
+        <v>81.144107265339187</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="30">
+        <v>56.773526370217176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28">
+        <v>81.006064478363712</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="30">
+        <v>58.946234453040837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28">
+        <v>81.00583562522155</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="29"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="30">
+        <v>56.223680344726269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28">
+        <v>80.325179238478071</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="30">
+        <v>48.535892664773286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28">
+        <v>79.997487678987639</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="30">
+        <v>59.358841778697006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28">
+        <v>78.081262908207762</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="30">
+        <v>57.692684360003909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28">
+        <v>48.575355531659156</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="30">
+        <v>71.990990108706285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28">
+        <v>48.400778711084861</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="30">
+        <v>65.302125159142093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28">
+        <v>47.391591958877406</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="29"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="30">
+        <v>68.367446871021457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28">
+        <v>43.938598091881701</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="30">
+        <v>73.273920282048763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28">
+        <v>43.903488589958819</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="30">
+        <v>73.254333561845058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28">
+        <v>39.047822090908767</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="30">
+        <v>70.630816959669076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28">
+        <v>38.316240867730784</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="30">
+        <v>73.526370217166487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28">
+        <v>45.507598174496557</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="30">
+        <v>79.267456664381555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28">
+        <v>40.435706667717028</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="30">
+        <v>79.007238883143742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28">
+        <v>71.662447031400703</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="30">
+        <v>52.430196483971045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28">
+        <v>53.489573254870194</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="30">
+        <v>56.359875904860388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28">
+        <v>52.433919125148634</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="30">
+        <v>52.629517187346977</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28">
+        <v>51.906473308868541</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="30">
+        <v>55.450004896680042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28">
+        <v>50.554284484859338</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="30">
+        <v>58.417393007540873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28">
+        <v>50.443518520238904</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="29"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="30">
+        <v>57.349916756439136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28">
+        <v>49.701099544876023</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="30">
+        <v>58.015865243364992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28">
+        <v>47.364055521016809</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="30">
+        <v>56.292233865439222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28">
+        <v>67.854166548457542</v>
+      </c>
+      <c r="F95" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="29"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="30">
+        <v>63.950641465086669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28">
+        <v>66.596741722299029</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="30">
+        <v>62.520810890216424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28">
+        <v>65.197436444756505</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="29"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="30">
+        <v>58.417393007540873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28">
+        <v>64.856271953335536</v>
+      </c>
+      <c r="F98" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="29"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="30">
+        <v>62.559984330623827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28">
+        <v>63.481174190382781</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="30">
+        <v>59.749289981392614</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28">
+        <v>63.263371967406513</v>
+      </c>
+      <c r="F100" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="29"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="30">
+        <v>57.281363235726168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28">
+        <v>63.111973656593676</v>
+      </c>
+      <c r="F101" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="30">
+        <v>64.499069630790331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28">
+        <v>63.092608360281019</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="30">
+        <v>60.620899030457352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28">
+        <v>62.433689584598028</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="29"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="30">
+        <v>60.062677504651838</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28">
+        <v>61.491274530133644</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="29"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="30">
+        <v>59.426109098031532</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28">
+        <v>61.067733160355985</v>
+      </c>
+      <c r="F105" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="30">
+        <v>62.403290568994215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28">
+        <v>60.113671526248616</v>
+      </c>
+      <c r="F106" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="29"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="30">
+        <v>56.566701137538779</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28">
+        <v>59.738127359915573</v>
+      </c>
+      <c r="F107" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G107" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="29"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="30">
+        <v>60.581725590049949</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28">
+        <v>58.919595495971869</v>
+      </c>
+      <c r="F108" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G108" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="29"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="30">
+        <v>64.736297828335054</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28">
+        <v>58.859157492914115</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="29"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="30">
+        <v>67.942088934850048</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28">
+        <v>58.807208444912121</v>
+      </c>
+      <c r="F110" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="29"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="30">
+        <v>69.033395357947299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28">
+        <v>58.464650952706357</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="29"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="30">
+        <v>63.676427382234849</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28">
+        <v>55.645573557149184</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="30">
+        <v>71.863676427382231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28">
+        <v>55.064004133263225</v>
+      </c>
+      <c r="F113" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="29"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="30">
+        <v>67.133483498188227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28">
+        <v>81.498725529137474</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H114" s="29"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="30">
+        <v>73.216132368148905</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28">
+        <v>50.250716664638283</v>
+      </c>
+      <c r="F115" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H115" s="29"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="30">
+        <v>74.043433298862453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28">
+        <v>57.959767664932436</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="29"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="30">
+        <v>78.179937952430194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28">
+        <v>14.929692110836193</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="29"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="30">
+        <v>78.748408578983444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28">
+        <v>12.429271988973003</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="29"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="30">
+        <v>81.304475565566548</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28">
+        <v>11.936461377000498</v>
+      </c>
+      <c r="F119" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="29"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="30">
+        <v>78.934482420918613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28">
+        <v>8.9500746030892699</v>
+      </c>
+      <c r="F120" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G120" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="29"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="30">
+        <v>77.318578004113206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28">
+        <v>6.4793875443687661</v>
+      </c>
+      <c r="F121" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="29"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="30">
+        <v>77.651552247576134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28">
+        <v>5.7358845797499116</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="29"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="30">
+        <v>78.800413650465359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28">
+        <v>4.996754369667002</v>
+      </c>
+      <c r="F123" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="29"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="30">
+        <v>82.156497894427559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28">
+        <v>2.7331857173059508</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G124" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="29"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="30">
+        <v>75.124865341298602</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28">
+        <v>1.0434700402981896</v>
+      </c>
+      <c r="F125" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="29"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="30">
+        <v>81.07549120992762</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28">
+        <v>86.836810649521226</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G126" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="29"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="30">
+        <v>56.723141709920675</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28">
+        <v>86.596856670144192</v>
+      </c>
+      <c r="F127" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="29"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="30">
+        <v>53.422779355596909</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28">
+        <v>85.336122986614953</v>
+      </c>
+      <c r="F128" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="29"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="30">
+        <v>68.355739400206815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28">
+        <v>85.170498949771371</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G129" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="29"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="30">
+        <v>51.846048379198905</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28">
+        <v>85.12916606955396</v>
+      </c>
+      <c r="F130" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="29"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="30">
+        <v>59.240035256096355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28">
+        <v>84.436649214626186</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G131" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="29"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="30">
+        <v>59.54362941925374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28">
+        <v>83.508712752758854</v>
+      </c>
+      <c r="F132" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G132" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="29"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="30">
+        <v>66.907962771458116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28">
+        <v>83.347584532253975</v>
+      </c>
+      <c r="F133" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="29"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="30">
+        <v>60.415238468318478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28">
+        <v>83.067185028886243</v>
+      </c>
+      <c r="F134" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="29"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="30">
+        <v>61.116856256463279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28">
+        <v>82.325449227852459</v>
+      </c>
+      <c r="F135" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="29"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="30">
+        <v>53.657819998041326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28">
+        <v>80.760490576650255</v>
+      </c>
+      <c r="F136" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G136" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="29"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="30">
+        <v>59.151895015179704</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28">
+        <v>84.084759277768669</v>
+      </c>
+      <c r="F137" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G137" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H137" s="29"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="30">
+        <v>44.260599793174762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28">
+        <v>52.737024822107173</v>
+      </c>
+      <c r="F138" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G138" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="29"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="30">
+        <v>81.921457251983171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28">
+        <v>50.186912194436687</v>
+      </c>
+      <c r="F139" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G139" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="29"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="30">
+        <v>82.109617373319537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28">
+        <v>49.619749073309386</v>
+      </c>
+      <c r="F140" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G140" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="29"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="30">
+        <v>85.005170630816963</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28">
+        <v>49.29271358415609</v>
+      </c>
+      <c r="F141" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G141" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="29"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="30">
+        <v>79.766918029575933</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28">
+        <v>49.266680566907134</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G142" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="29"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="31"/>
+      <c r="K142" s="30">
+        <v>85.729058945191312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28">
+        <v>48.913699824969697</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G143" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="29"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="30">
+        <v>84.901758014477764</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28">
+        <v>72.877247684136677</v>
+      </c>
+      <c r="F144" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="29"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="31"/>
+      <c r="K144" s="30">
+        <v>78.366467535011267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28">
+        <v>70.867756455230875</v>
+      </c>
+      <c r="F145" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G145" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="29"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="30">
+        <v>75.908334149446659</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28">
+        <v>70.794010513956323</v>
+      </c>
+      <c r="F146" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G146" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="29"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="30">
+        <v>76.525315835863267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28">
+        <v>70.015642962853121</v>
+      </c>
+      <c r="F147" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G147" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="29"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="30">
+        <v>79.747331309372242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28">
+        <v>69.841766188760047</v>
+      </c>
+      <c r="F148" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G148" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="29"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="30">
+        <v>78.493781216335336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28">
+        <v>69.375334010249517</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G149" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="29"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="30">
+        <v>77.456049638055845</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28">
+        <v>67.855877783408232</v>
+      </c>
+      <c r="F150" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G150" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="29"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="30">
+        <v>77.191264322789138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28">
+        <v>69.819790843229583</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H151" s="29"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="30">
+        <v>74.146845915201652</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28">
+        <v>73.673733909053666</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G152" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="29"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="30">
+        <v>73.12701988052099</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28">
+        <v>72.319470810463088</v>
+      </c>
+      <c r="F153" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G153" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="29"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="30">
+        <v>70.717853295465673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28">
+        <v>68.506981943240234</v>
+      </c>
+      <c r="F154" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G154" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="29"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="30">
+        <v>77.191264322789138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28">
+        <v>67.804992466419762</v>
+      </c>
+      <c r="F155" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="29"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="30">
+        <v>80.248190279214057</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28">
+        <v>67.185258926093283</v>
+      </c>
+      <c r="F156" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G156" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="29"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="30">
+        <v>78.278327294094595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28">
+        <v>66.855223532133721</v>
+      </c>
+      <c r="F157" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G157" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="29"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="30">
+        <v>77.559462254395029</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28">
+        <v>66.354231689433846</v>
+      </c>
+      <c r="F158" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G158" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="29"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="31"/>
+      <c r="K158" s="30">
+        <v>73.890901968465371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28">
+        <v>65.342739912808696</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G159" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="29"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="31"/>
+      <c r="K159" s="30">
+        <v>66.40877485065127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28">
+        <v>64.769849799766973</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G160" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="29"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="31"/>
+      <c r="K160" s="30">
+        <v>72.039956909215547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28">
+        <v>63.723457022139804</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G161" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="29"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="31"/>
+      <c r="K161" s="30">
+        <v>78.640681617863081</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28">
+        <v>61.199982436069234</v>
+      </c>
+      <c r="F162" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G162" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="29"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="31"/>
+      <c r="K162" s="30">
+        <v>79.473117226520429</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28">
+        <v>60.053309253384249</v>
+      </c>
+      <c r="F163" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G163" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="29"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="30">
+        <v>71.664943123061008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28">
+        <v>89.470486533985664</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G164" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="29"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="31"/>
+      <c r="K164" s="30">
+        <v>60.910031023784903</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28">
+        <v>89.425427335233024</v>
+      </c>
+      <c r="F165" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" s="29"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="31"/>
+      <c r="K165" s="30">
+        <v>68.181373029086288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28">
+        <v>89.393624408798885</v>
+      </c>
+      <c r="F166" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G166" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" s="29"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="31"/>
+      <c r="K166" s="30">
+        <v>68.25232678386763</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28">
+        <v>86.69902612301243</v>
+      </c>
+      <c r="F167" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G167" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="29"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="30">
+        <v>5.3961414161198613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28">
+        <v>84.515817477125793</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="29"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="31"/>
+      <c r="K168" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28">
+        <v>83.961531947337861</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G169" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="29"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="31"/>
+      <c r="K169" s="30">
+        <v>4.3482518852218179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28">
+        <v>83.856448997135217</v>
+      </c>
+      <c r="F170" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G170" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="29"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="30">
+        <v>3.6823033982959461</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28">
+        <v>83.24141355838745</v>
+      </c>
+      <c r="F171" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G171" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="29"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="31"/>
+      <c r="K171" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28">
+        <v>82.753826685393577</v>
+      </c>
+      <c r="F172" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G172" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" s="29"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="31"/>
+      <c r="K172" s="30">
+        <v>14.064115822130294</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28">
+        <v>80.085193990864255</v>
+      </c>
+      <c r="F173" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G173" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H173" s="29"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="30">
+        <v>60.405445108216625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28">
+        <v>79.729604572562465</v>
+      </c>
+      <c r="F174" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G174" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" s="29"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="31"/>
+      <c r="K174" s="30">
+        <v>62.050729605327589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28">
+        <v>79.26765126322617</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G175" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H175" s="29"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="31"/>
+      <c r="K175" s="30">
+        <v>55.371658015865236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28">
+        <v>79.101689225097786</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G176" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H176" s="29"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="31"/>
+      <c r="K176" s="30">
+        <v>63.495346432264746</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28">
+        <v>78.831981140513548</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G177" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H177" s="29"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="31"/>
+      <c r="K177" s="30">
+        <v>61.707962001762809</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28">
+        <v>78.666548110260166</v>
+      </c>
+      <c r="F178" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G178" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H178" s="29"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="31"/>
+      <c r="K178" s="30">
+        <v>62.266183527568309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28">
+        <v>78.369341342632367</v>
+      </c>
+      <c r="F179" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G179" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H179" s="29"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="30">
+        <v>53.148565272745074</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28">
+        <v>78.122043849688978</v>
+      </c>
+      <c r="F180" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G180" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H180" s="29"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="30">
+        <v>55.254137694643035</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28">
+        <v>77.581719642924668</v>
+      </c>
+      <c r="F181" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G181" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" s="29"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="30">
+        <v>60.562138869846237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28">
+        <v>77.203457461629228</v>
+      </c>
+      <c r="F182" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G182" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" s="29"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="30">
+        <v>63.098619136225629</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28">
+        <v>77.158691486642553</v>
+      </c>
+      <c r="F183" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G183" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H183" s="29"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="31"/>
+      <c r="K183" s="30">
+        <v>59.112721574772308</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28">
+        <v>76.786756968848351</v>
+      </c>
+      <c r="F184" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G184" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" s="29"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="31"/>
+      <c r="K184" s="30">
+        <v>60.248751346587014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28">
+        <v>76.560490426455587</v>
+      </c>
+      <c r="F185" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G185" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" s="29"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="31"/>
+      <c r="K185" s="30">
+        <v>57.996278523161294</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28">
+        <v>76.477207241014838</v>
+      </c>
+      <c r="F186" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G186" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H186" s="29"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="30">
+        <v>57.898344922142776</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28">
+        <v>76.459152199978021</v>
+      </c>
+      <c r="F187" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G187" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H187" s="29"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="31"/>
+      <c r="K187" s="30">
+        <v>62.254395036194424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28">
+        <v>76.351311646124486</v>
+      </c>
+      <c r="F188" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G188" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H188" s="29"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="31"/>
+      <c r="K188" s="30">
+        <v>62.403290568994215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28">
+        <v>76.096028180292834</v>
+      </c>
+      <c r="F189" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G189" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H189" s="29"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="31"/>
+      <c r="K189" s="30">
+        <v>61.384781118401719</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28">
+        <v>75.984164121898829</v>
+      </c>
+      <c r="F190" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G190" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H190" s="29"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="31"/>
+      <c r="K190" s="30">
+        <v>58.172559004994604</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28">
+        <v>75.656200071006779</v>
+      </c>
+      <c r="F191" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G191" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H191" s="29"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="30">
+        <v>60.131231025364805</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28">
+        <v>74.912796786559312</v>
+      </c>
+      <c r="F192" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G192" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H192" s="29"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="31"/>
+      <c r="K192" s="30">
+        <v>64.62638331211437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28">
+        <v>74.136308446857683</v>
+      </c>
+      <c r="F193" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G193" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H193" s="29"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="31"/>
+      <c r="K193" s="30">
+        <v>62.628537851336787</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28">
+        <v>72.831124923376507</v>
+      </c>
+      <c r="F194" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G194" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" s="29"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="31"/>
+      <c r="K194" s="30">
+        <v>58.45656644794829</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28">
+        <v>72.807616597889862</v>
+      </c>
+      <c r="F195" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G195" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H195" s="29"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="31"/>
+      <c r="K195" s="30">
+        <v>58.407599647439035</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28">
+        <v>72.317202797941007</v>
+      </c>
+      <c r="F196" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G196" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H196" s="29"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="30">
+        <v>71.383801782391515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28">
+        <v>70.950245654490161</v>
+      </c>
+      <c r="F197" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G197" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" s="29"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="31"/>
+      <c r="K197" s="30">
+        <v>44.570837642192338</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28">
+        <v>68.096111712887094</v>
+      </c>
+      <c r="F198" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G198" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H198" s="29"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="31"/>
+      <c r="K198" s="30">
+        <v>66.281461169327187</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28">
+        <v>66.694576376449206</v>
+      </c>
+      <c r="F199" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G199" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" s="29"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="30">
+        <v>46.861228087356764</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28">
+        <v>65.781561912239212</v>
+      </c>
+      <c r="F200" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G200" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" s="29"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="31"/>
+      <c r="K200" s="30">
+        <v>55.048477132504161</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28">
+        <v>64.79990937601498</v>
+      </c>
+      <c r="F201" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G201" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" s="29"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="31"/>
+      <c r="K201" s="30">
+        <v>51.454313975124855</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28">
+        <v>64.313711238812047</v>
+      </c>
+      <c r="F202" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G202" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="29"/>
+      <c r="I202" s="30"/>
+      <c r="J202" s="31"/>
+      <c r="K202" s="30">
+        <v>53.031044951522851</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28">
+        <v>63.585065509495529</v>
+      </c>
+      <c r="F203" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" s="29"/>
+      <c r="I203" s="30"/>
+      <c r="J203" s="31"/>
+      <c r="K203" s="30">
+        <v>45.793751836255012</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28">
+        <v>63.391366705992169</v>
+      </c>
+      <c r="F204" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" s="29"/>
+      <c r="I204" s="30"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="30">
+        <v>34.991675643913418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28">
+        <v>62.739982149209951</v>
+      </c>
+      <c r="F205" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G205" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" s="29"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="31"/>
+      <c r="K205" s="30">
+        <v>56.037606502791107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28">
+        <v>62.541328393425403</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G206" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" s="29"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="31"/>
+      <c r="K206" s="30">
+        <v>48.878660268338066</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28">
+        <v>62.393149180635547</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G207" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" s="29"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="31"/>
+      <c r="K207" s="30">
+        <v>47.262755851532653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28">
+        <v>62.015964218986205</v>
+      </c>
+      <c r="F208" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G208" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" s="29"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="31"/>
+      <c r="K208" s="30">
+        <v>50.361944157187175</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28">
+        <v>61.986489055658957</v>
+      </c>
+      <c r="F209" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G209" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" s="29"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="31"/>
+      <c r="K209" s="30">
+        <v>48.496719224365876</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28">
+        <v>61.891224803977899</v>
+      </c>
+      <c r="F210" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G210" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" s="29"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="31"/>
+      <c r="K210" s="30">
+        <v>41.563020272255407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28">
+        <v>61.709275234134275</v>
+      </c>
+      <c r="F211" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="29"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="30">
+        <v>28.541882109617369</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28">
+        <v>61.610362563050714</v>
+      </c>
+      <c r="F212" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G212" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212" s="29"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="31"/>
+      <c r="K212" s="30">
+        <v>49.084320830476926</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28">
+        <v>61.447430709280468</v>
+      </c>
+      <c r="F213" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G213" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H213" s="29"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="30">
+        <v>44.119087258838505</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28">
+        <v>61.320673862356045</v>
+      </c>
+      <c r="F214" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" s="29"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="31"/>
+      <c r="K214" s="30">
+        <v>40.554304181764763</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28">
+        <v>61.269471595584577</v>
+      </c>
+      <c r="F215" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G215" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H215" s="29"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="31"/>
+      <c r="K215" s="30">
+        <v>50.568769389865565</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28">
+        <v>61.104147587978005</v>
+      </c>
+      <c r="F216" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H216" s="29"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="31"/>
+      <c r="K216" s="30">
+        <v>35.050435804524525</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28">
+        <v>61.09592060965231</v>
+      </c>
+      <c r="F217" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G217" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H217" s="29"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="31"/>
+      <c r="K217" s="30">
+        <v>56.153050672182005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="28">
+        <v>60.94714527807281</v>
+      </c>
+      <c r="F218" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G218" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H218" s="29"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="31"/>
+      <c r="K218" s="30">
+        <v>59.945157183429629</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28">
+        <v>60.872514204183602</v>
+      </c>
+      <c r="F219" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G219" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" s="29"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="31"/>
+      <c r="K219" s="30">
+        <v>47.488003133875232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28">
+        <v>60.724602104204216</v>
+      </c>
+      <c r="F220" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G220" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H220" s="29"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="31"/>
+      <c r="K220" s="30">
+        <v>43.58045245323671</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28">
+        <v>60.722728948954355</v>
+      </c>
+      <c r="F221" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G221" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221" s="29"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="31"/>
+      <c r="K221" s="30">
+        <v>48.947213789051013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28">
+        <v>60.660862518000989</v>
+      </c>
+      <c r="F222" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G222" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H222" s="29"/>
+      <c r="I222" s="30"/>
+      <c r="J222" s="31"/>
+      <c r="K222" s="30">
+        <v>50.964645970032308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28">
+        <v>60.621248246290051</v>
+      </c>
+      <c r="F223" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G223" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H223" s="29"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="31"/>
+      <c r="K223" s="30">
+        <v>44.324747820977365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28">
+        <v>60.534133944815402</v>
+      </c>
+      <c r="F224" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G224" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" s="29"/>
+      <c r="I224" s="30"/>
+      <c r="J224" s="31"/>
+      <c r="K224" s="30">
+        <v>30.403309203722863</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28">
+        <v>60.488477251461582</v>
+      </c>
+      <c r="F225" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G225" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H225" s="29"/>
+      <c r="I225" s="30"/>
+      <c r="J225" s="31"/>
+      <c r="K225" s="30">
+        <v>59.152016546018615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28">
+        <v>60.361901027434982</v>
+      </c>
+      <c r="F226" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G226" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" s="29"/>
+      <c r="I226" s="30"/>
+      <c r="J226" s="31"/>
+      <c r="K226" s="30">
+        <v>61.619821760846136</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28">
+        <v>60.23117917556047</v>
+      </c>
+      <c r="F227" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H227" s="29"/>
+      <c r="I227" s="30"/>
+      <c r="J227" s="31"/>
+      <c r="K227" s="30">
+        <v>42.916235780765248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28">
+        <v>60.127512162196197</v>
+      </c>
+      <c r="F228" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G228" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" s="29"/>
+      <c r="I228" s="30"/>
+      <c r="J228" s="31"/>
+      <c r="K228" s="30">
+        <v>53.364019194985786</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28">
+        <v>59.979795164657503</v>
+      </c>
+      <c r="F229" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G229" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H229" s="29"/>
+      <c r="I229" s="30"/>
+      <c r="J229" s="31"/>
+      <c r="K229" s="30">
+        <v>53.050672182006195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28">
+        <v>59.814246005213235</v>
+      </c>
+      <c r="F230" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G230" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H230" s="29"/>
+      <c r="I230" s="30"/>
+      <c r="J230" s="31"/>
+      <c r="K230" s="30">
+        <v>60.289555325749731</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28">
+        <v>59.742207770355947</v>
+      </c>
+      <c r="F231" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G231" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H231" s="29"/>
+      <c r="I231" s="30"/>
+      <c r="J231" s="31"/>
+      <c r="K231" s="30">
+        <v>53.246498873763585</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28">
+        <v>59.619310143439442</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G232" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" s="29"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="31"/>
+      <c r="K232" s="30">
+        <v>53.060425031828416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28">
+        <v>59.615119583697826</v>
+      </c>
+      <c r="F233" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G233" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H233" s="29"/>
+      <c r="I233" s="30"/>
+      <c r="J233" s="31"/>
+      <c r="K233" s="30">
+        <v>49.431230610134428</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28">
+        <v>59.47269570638273</v>
+      </c>
+      <c r="F234" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G234" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" s="29"/>
+      <c r="I234" s="30"/>
+      <c r="J234" s="31"/>
+      <c r="K234" s="30">
+        <v>51.085832471561531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28">
+        <v>59.453026854813317</v>
+      </c>
+      <c r="F235" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G235" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235" s="29"/>
+      <c r="I235" s="30"/>
+      <c r="J235" s="31"/>
+      <c r="K235" s="30">
+        <v>25.727156987562427</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28">
+        <v>59.434660438736778</v>
+      </c>
+      <c r="F236" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G236" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H236" s="29"/>
+      <c r="I236" s="30"/>
+      <c r="J236" s="31"/>
+      <c r="K236" s="30">
+        <v>43.01964839710444</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28">
+        <v>59.147709224269164</v>
+      </c>
+      <c r="F237" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H237" s="29"/>
+      <c r="I237" s="30"/>
+      <c r="J237" s="31"/>
+      <c r="K237" s="30">
+        <v>41.024385466653612</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28">
+        <v>59.090878533436822</v>
+      </c>
+      <c r="F238" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G238" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H238" s="29"/>
+      <c r="I238" s="30"/>
+      <c r="J238" s="31"/>
+      <c r="K238" s="30">
+        <v>41.882109617373317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28">
+        <v>59.030109341218441</v>
+      </c>
+      <c r="F239" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G239" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" s="29"/>
+      <c r="I239" s="30"/>
+      <c r="J239" s="31"/>
+      <c r="K239" s="30">
+        <v>47.439036333365976</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28">
+        <v>59.012261594580508</v>
+      </c>
+      <c r="F240" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G240" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H240" s="29"/>
+      <c r="I240" s="30"/>
+      <c r="J240" s="31"/>
+      <c r="K240" s="30">
+        <v>47.390069532856721</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="28"/>
+      <c r="E241" s="28">
+        <v>58.75395195181288</v>
+      </c>
+      <c r="F241" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G241" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H241" s="29"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="31"/>
+      <c r="K241" s="30">
+        <v>36.725100381941047</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28">
+        <v>58.176603097110103</v>
+      </c>
+      <c r="F242" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G242" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H242" s="29"/>
+      <c r="I242" s="30"/>
+      <c r="J242" s="31"/>
+      <c r="K242" s="30">
+        <v>54.010380961707952</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28">
+        <v>58.039097258499631</v>
+      </c>
+      <c r="F243" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G243" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H243" s="29"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="31"/>
+      <c r="K243" s="30">
+        <v>45.225736950347653</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28">
+        <v>57.853434592256136</v>
+      </c>
+      <c r="F244" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G244" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H244" s="29"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="31"/>
+      <c r="K244" s="30">
+        <v>51.121339731661941</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28">
+        <v>57.36744346245306</v>
+      </c>
+      <c r="F245" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G245" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245" s="29"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="31"/>
+      <c r="K245" s="30">
+        <v>26.887280248190276</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28">
+        <v>57.318322303552904</v>
+      </c>
+      <c r="F246" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G246" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="29"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="31"/>
+      <c r="K246" s="30">
+        <v>50.3476642836157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28">
+        <v>56.899106979004664</v>
+      </c>
+      <c r="F247" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G247" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" s="29"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="31"/>
+      <c r="K247" s="30">
+        <v>44.530408383116246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="27"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28">
+        <v>56.742349294943573</v>
+      </c>
+      <c r="F248" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="29"/>
+      <c r="I248" s="30"/>
+      <c r="J248" s="31"/>
+      <c r="K248" s="30">
+        <v>30.09307135470527</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28">
+        <v>56.648604982183372</v>
+      </c>
+      <c r="F249" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G249" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H249" s="29"/>
+      <c r="I249" s="30"/>
+      <c r="J249" s="31"/>
+      <c r="K249" s="30">
+        <v>47.125648810106739</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28">
+        <v>56.522023910976316</v>
+      </c>
+      <c r="F250" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G250" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="29"/>
+      <c r="I250" s="30"/>
+      <c r="J250" s="31"/>
+      <c r="K250" s="30">
+        <v>45.708376421923475</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28">
+        <v>56.056272636135581</v>
+      </c>
+      <c r="F251" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G251" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H251" s="29"/>
+      <c r="I251" s="30"/>
+      <c r="J251" s="31"/>
+      <c r="K251" s="30">
+        <v>49.19204779159729</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28">
+        <v>55.839544181359372</v>
+      </c>
+      <c r="F252" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G252" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252" s="29"/>
+      <c r="I252" s="30"/>
+      <c r="J252" s="31"/>
+      <c r="K252" s="30">
+        <v>41.985522233712508</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28">
+        <v>55.68526479332909</v>
+      </c>
+      <c r="F253" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G253" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H253" s="29"/>
+      <c r="I253" s="30"/>
+      <c r="J253" s="31"/>
+      <c r="K253" s="30">
+        <v>51.033199490745275</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28">
+        <v>55.683629774184098</v>
+      </c>
+      <c r="F254" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G254" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H254" s="29"/>
+      <c r="I254" s="30"/>
+      <c r="J254" s="31"/>
+      <c r="K254" s="30">
+        <v>44.951522867495832</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28">
+        <v>53.867590787494358</v>
+      </c>
+      <c r="F255" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G255" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H255" s="29"/>
+      <c r="I255" s="30"/>
+      <c r="J255" s="31"/>
+      <c r="K255" s="30">
+        <v>53.843893839976488</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="32"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33">
+        <v>51.390983131924315</v>
+      </c>
+      <c r="F256" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G256" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H256" s="34"/>
+      <c r="I256" s="35"/>
+      <c r="J256" s="36"/>
+      <c r="K256" s="35">
+        <v>59.465282538438935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD41DE24-B742-43B4-A323-E20052419E6B}">
   <dimension ref="A1:Y280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23136,7 +29102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB425F0-7F5C-417D-A94B-3BED8454D8F3}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -23232,7 +29198,7 @@
       <c r="A11" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="13">
         <v>100</v>
       </c>
     </row>
